--- a/Location Details/S Meridian St, Indianapolis, IN 46225_restaurants.xlsx
+++ b/Location Details/S Meridian St, Indianapolis, IN 46225_restaurants.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -556,7 +556,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4148</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="7">
@@ -604,7 +604,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -661,22 +661,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Charleston's Restaurant</t>
+          <t>Carrabba's Italian Grill</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1457</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -685,22 +685,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cheddar's Scratch Kitchen</t>
+          <t>Charleston's Restaurant</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="F11" t="n">
-        <v>4161</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fire by the Monon</t>
+          <t>Cracker Barrel Old Country Store</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F14" t="n">
-        <v>906</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>First Watch</t>
+          <t>Fire by the Monon</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -789,12 +789,12 @@
         <v>4.6</v>
       </c>
       <c r="F15" t="n">
-        <v>486</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Flatwater</t>
+          <t>First Watch</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -813,12 +813,12 @@
         <v>4.6</v>
       </c>
       <c r="F16" t="n">
-        <v>874</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -827,22 +827,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fogo de Chão Brazilian Steakhouse</t>
+          <t>Flatwater</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>4.6</v>
       </c>
       <c r="F17" t="n">
-        <v>4872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -851,22 +851,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Greek Islands</t>
+          <t>Fogo de Chão Brazilian Steakhouse</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>866</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -875,20 +875,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hinata Japanese Fine Dining</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Greek Islands</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
       <c r="E19" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -912,7 +914,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -936,7 +938,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -960,7 +962,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -984,7 +986,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -993,7 +995,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Livery</t>
+          <t>Kuma's Corner</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1003,12 +1005,12 @@
         <v>4.7</v>
       </c>
       <c r="F24" t="n">
-        <v>1490</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1017,22 +1019,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Maggiano's Little Italy</t>
+          <t>Livery</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="F25" t="n">
-        <v>2255</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1041,22 +1043,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Major Restaurant</t>
+          <t>Maggiano's Little Italy</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F26" t="n">
-        <v>427</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1065,22 +1067,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mama Carolla's</t>
+          <t>Major Restaurant</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F27" t="n">
-        <v>1639</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1089,22 +1091,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Meridian Restaurant &amp; Bar</t>
+          <t>Mama Carolla's</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F28" t="n">
-        <v>365</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1113,22 +1115,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mimi Blue Restaurants</t>
+          <t>Meridian Restaurant &amp; Bar</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F29" t="n">
-        <v>1053</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1137,22 +1139,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nada</t>
+          <t>Mimi Blue Restaurants</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F30" t="n">
-        <v>1952</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1161,20 +1163,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nesso</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>Nada</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
       <c r="E31" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F31" t="n">
-        <v>219</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1183,22 +1187,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Oakleys Bistro</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
+          <t>Nesso</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>4.7</v>
       </c>
       <c r="F32" t="n">
-        <v>273</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1207,22 +1209,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ocean Prime</t>
+          <t>Oakleys Bistro</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="F33" t="n">
-        <v>958</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1231,22 +1233,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Olive Garden Italian Restaurant</t>
+          <t>Ocean Prime</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="F34" t="n">
-        <v>2760</v>
+        <v>958</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1255,22 +1257,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rusty Bucket Restaurant and Tavern</t>
+          <t>Olive Garden Italian Restaurant</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="F35" t="n">
-        <v>946</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1279,22 +1281,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ruth's Chris Steak House</t>
+          <t>Rusty Bucket Restaurant and Tavern</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F36" t="n">
-        <v>1709</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1303,22 +1305,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Seasons 52</t>
+          <t>Ruth's Chris Steak House</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F37" t="n">
-        <v>1339</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1327,7 +1329,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sero's Family Restaurant</t>
+          <t>Seasons 52</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1337,12 +1339,12 @@
         <v>4.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1158</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1351,22 +1353,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Slapfish</t>
+          <t>Sero's Family Restaurant</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F39" t="n">
-        <v>317</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1375,22 +1377,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Steer-In</t>
+          <t>Slapfish</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F40" t="n">
-        <v>2703</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1399,22 +1401,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TURF Catering + Kitchen</t>
+          <t>Steer-In</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="F41" t="n">
-        <v>91</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1423,22 +1425,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ted's Montana Grill</t>
+          <t>Tavern On South</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="F42" t="n">
-        <v>904</v>
+        <v>755</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1447,22 +1449,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Thai Recipes Restaurant</t>
+          <t>Ted's Montana Grill</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F43" t="n">
-        <v>430</v>
+        <v>904</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1471,22 +1473,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Thai Taste</t>
+          <t>Thai Recipes Restaurant</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="F44" t="n">
-        <v>555</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1495,22 +1497,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The Capital Grille</t>
+          <t>Thai Taste</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>4.6</v>
       </c>
       <c r="F45" t="n">
-        <v>820</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1519,22 +1521,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>The Cheesecake Factory</t>
+          <t>The Capital Grille</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="F46" t="n">
-        <v>2380</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1543,22 +1545,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>The Oceanaire Seafood Room</t>
+          <t>The Cheesecake Factory</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="F47" t="n">
-        <v>975</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1567,22 +1569,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The Old Spaghetti Factory</t>
+          <t>The Oceanaire Seafood Room</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F48" t="n">
-        <v>2772</v>
+        <v>975</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1606,7 +1608,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1630,7 +1632,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1649,12 +1651,12 @@
         <v>4.5</v>
       </c>
       <c r="F51" t="n">
-        <v>3904</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1702,7 +1704,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1726,7 +1728,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
